--- a/Excel files/GCS_WITH_NAMES_FINAL_PROCCES_0.xlsx
+++ b/Excel files/GCS_WITH_NAMES_FINAL_PROCCES_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="628">
   <si>
     <t>Glasgow_first_digit</t>
   </si>
@@ -1892,6 +1892,12 @@
   </si>
   <si>
     <t>WIDE_RANGE:</t>
+  </si>
+  <si>
+    <t>MORE_OR_EQ</t>
+  </si>
+  <si>
+    <t>UNDER15_NORMAL:</t>
   </si>
 </sst>
 </file>
@@ -2339,15 +2345,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
@@ -2954,544 +2960,604 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="8">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1157</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1211</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="2">
-        <v>1157</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="8">
+        <v>1215</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="7">
+        <v>1254</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1277</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1318</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1332</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
-        <v>1211</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="B38" s="6">
+        <v>1335</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1350</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1377</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="7">
+        <v>1431</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1452</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1558</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1653</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="7">
+        <v>1668</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1735</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="6">
+        <v>1801</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="8">
+        <v>1807</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="8">
+        <v>1820</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7">
+        <v>10</v>
+      </c>
+      <c r="B50" s="7">
+        <v>1864</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1872</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1937</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="7">
+        <v>15</v>
+      </c>
+      <c r="B53" s="7">
+        <v>1941</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1966</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="7">
+        <v>2123</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="8">
+        <v>2156</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1215</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1254</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1277</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="2" t="s">
+      <c r="F57" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="6">
+        <v>2170</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2">
-        <v>1318</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="2">
-        <v>1332</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1335</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="2">
-        <v>1350</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="2" t="s">
+      <c r="B59" s="8">
+        <v>2197</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="2">
-        <v>1377</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="2">
-        <v>1431</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="2">
-        <v>1452</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="2">
-        <v>1558</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1653</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1668</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2">
-        <v>1735</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="2">
-        <v>1801</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1807</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="2">
-        <v>1820</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1864</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1872</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="2">
-        <v>1937</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="2">
-        <v>1941</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" s="2">
-        <v>1966</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2033</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="2">
-        <v>2123</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="2">
-        <v>2156</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="2">
-        <v>2170</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B59" s="2">
-        <v>2197</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>2203</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="6" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
